--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.88417915328708</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H2">
-        <v>5.88417915328708</v>
+        <v>18.523277</v>
       </c>
       <c r="I2">
-        <v>0.5022948862308193</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J2">
-        <v>0.5022948862308193</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.50757625060042</v>
+        <v>1.098765</v>
       </c>
       <c r="N2">
-        <v>0.50757625060042</v>
+        <v>3.296295</v>
       </c>
       <c r="O2">
-        <v>0.02013030496299061</v>
+        <v>0.04219121913039277</v>
       </c>
       <c r="P2">
-        <v>0.02013030496299061</v>
+        <v>0.04777771124863077</v>
       </c>
       <c r="Q2">
-        <v>2.98666959248661</v>
+        <v>6.784242817635</v>
       </c>
       <c r="R2">
-        <v>2.98666959248661</v>
+        <v>61.05818535871499</v>
       </c>
       <c r="S2">
-        <v>0.01011134924117706</v>
+        <v>0.02023507567119573</v>
       </c>
       <c r="T2">
-        <v>0.01011134924117706</v>
+        <v>0.02591402386165093</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.88417915328708</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H3">
-        <v>5.88417915328708</v>
+        <v>18.523277</v>
       </c>
       <c r="I3">
-        <v>0.5022948862308193</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J3">
-        <v>0.5022948862308193</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.5852286044109</v>
+        <v>15.79937666666667</v>
       </c>
       <c r="N3">
-        <v>15.5852286044109</v>
+        <v>47.39813</v>
       </c>
       <c r="O3">
-        <v>0.6181049731022549</v>
+        <v>0.6066765532820465</v>
       </c>
       <c r="P3">
-        <v>0.6181049731022549</v>
+        <v>0.6870059169052114</v>
       </c>
       <c r="Q3">
-        <v>91.70627725328812</v>
+        <v>97.55207680800112</v>
       </c>
       <c r="R3">
-        <v>91.70627725328812</v>
+        <v>877.96869127201</v>
       </c>
       <c r="S3">
-        <v>0.3104709671431007</v>
+        <v>0.2909644759413743</v>
       </c>
       <c r="T3">
-        <v>0.3104709671431007</v>
+        <v>0.3726232851785513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.88417915328708</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H4">
-        <v>5.88417915328708</v>
+        <v>18.523277</v>
       </c>
       <c r="I4">
-        <v>0.5022948862308193</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J4">
-        <v>0.5022948862308193</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.12172873171747</v>
+        <v>0.009167</v>
       </c>
       <c r="N4">
-        <v>9.12172873171747</v>
+        <v>0.027501</v>
       </c>
       <c r="O4">
-        <v>0.3617647219347545</v>
+        <v>0.000352001479632415</v>
       </c>
       <c r="P4">
-        <v>0.3617647219347545</v>
+        <v>0.0003986096017039115</v>
       </c>
       <c r="Q4">
-        <v>53.67388604511174</v>
+        <v>0.05660096008633334</v>
       </c>
       <c r="R4">
-        <v>53.67388604511174</v>
+        <v>0.509408640777</v>
       </c>
       <c r="S4">
-        <v>0.1817125698465415</v>
+        <v>0.0001688213027151859</v>
       </c>
       <c r="T4">
-        <v>0.1817125698465415</v>
+        <v>0.0002162007861005347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.20185509552028</v>
+        <v>6.174425666666667</v>
       </c>
       <c r="H5">
-        <v>2.20185509552028</v>
+        <v>18.523277</v>
       </c>
       <c r="I5">
-        <v>0.1879583414932692</v>
+        <v>0.4796039576068858</v>
       </c>
       <c r="J5">
-        <v>0.1879583414932692</v>
+        <v>0.5423873011998577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.50757625060042</v>
+        <v>9.1351955</v>
       </c>
       <c r="N5">
-        <v>0.50757625060042</v>
+        <v>18.270391</v>
       </c>
       <c r="O5">
-        <v>0.02013030496299061</v>
+        <v>0.3507802261079284</v>
       </c>
       <c r="P5">
-        <v>0.02013030496299061</v>
+        <v>0.264817762244454</v>
       </c>
       <c r="Q5">
-        <v>1.117609353749613</v>
+        <v>56.40458556521784</v>
       </c>
       <c r="R5">
-        <v>1.117609353749613</v>
+        <v>338.427513391307</v>
       </c>
       <c r="S5">
-        <v>0.003783658734597441</v>
+        <v>0.1682355846916007</v>
       </c>
       <c r="T5">
-        <v>0.003783658734597441</v>
+        <v>0.1436337913735549</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.20185509552028</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H6">
-        <v>2.20185509552028</v>
+        <v>6.686821</v>
       </c>
       <c r="I6">
-        <v>0.1879583414932692</v>
+        <v>0.1731349056329954</v>
       </c>
       <c r="J6">
-        <v>0.1879583414932692</v>
+        <v>0.1957994147469982</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.5852286044109</v>
+        <v>1.098765</v>
       </c>
       <c r="N6">
-        <v>15.5852286044109</v>
+        <v>3.296295</v>
       </c>
       <c r="O6">
-        <v>0.6181049731022549</v>
+        <v>0.04219121913039277</v>
       </c>
       <c r="P6">
-        <v>0.6181049731022549</v>
+        <v>0.04777771124863077</v>
       </c>
       <c r="Q6">
-        <v>34.31641501747056</v>
+        <v>2.449081625355</v>
       </c>
       <c r="R6">
-        <v>34.31641501747056</v>
+        <v>22.041734628195</v>
       </c>
       <c r="S6">
-        <v>0.1161779856130416</v>
+        <v>0.007304772742681581</v>
       </c>
       <c r="T6">
-        <v>0.1161779856130416</v>
+        <v>0.009354847900432979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.20185509552028</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H7">
-        <v>2.20185509552028</v>
+        <v>6.686821</v>
       </c>
       <c r="I7">
-        <v>0.1879583414932692</v>
+        <v>0.1731349056329954</v>
       </c>
       <c r="J7">
-        <v>0.1879583414932692</v>
+        <v>0.1957994147469982</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.12172873171747</v>
+        <v>15.79937666666667</v>
       </c>
       <c r="N7">
-        <v>9.12172873171747</v>
+        <v>47.39813</v>
       </c>
       <c r="O7">
-        <v>0.3617647219347545</v>
+        <v>0.6066765532820465</v>
       </c>
       <c r="P7">
-        <v>0.3617647219347545</v>
+        <v>0.6870059169052114</v>
       </c>
       <c r="Q7">
-        <v>20.08472488788585</v>
+        <v>35.21586789385889</v>
       </c>
       <c r="R7">
-        <v>20.08472488788585</v>
+        <v>316.94281104473</v>
       </c>
       <c r="S7">
-        <v>0.06799669714563017</v>
+        <v>0.105036887802238</v>
       </c>
       <c r="T7">
-        <v>0.06799669714563017</v>
+        <v>0.1345153564577653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.62855675059837</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H8">
-        <v>3.62855675059837</v>
+        <v>6.686821</v>
       </c>
       <c r="I8">
-        <v>0.3097467722759116</v>
+        <v>0.1731349056329954</v>
       </c>
       <c r="J8">
-        <v>0.3097467722759116</v>
+        <v>0.1957994147469982</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.50757625060042</v>
+        <v>0.009167</v>
       </c>
       <c r="N8">
-        <v>0.50757625060042</v>
+        <v>0.027501</v>
       </c>
       <c r="O8">
-        <v>0.02013030496299061</v>
+        <v>0.000352001479632415</v>
       </c>
       <c r="P8">
-        <v>0.02013030496299061</v>
+        <v>0.0003986096017039115</v>
       </c>
       <c r="Q8">
-        <v>1.841769230559564</v>
+        <v>0.02043269603566667</v>
       </c>
       <c r="R8">
-        <v>1.841769230559564</v>
+        <v>0.183894264321</v>
       </c>
       <c r="S8">
-        <v>0.006235296987216104</v>
+        <v>6.094374295883292E-05</v>
       </c>
       <c r="T8">
-        <v>0.006235296987216104</v>
+        <v>7.804752672615994E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.62855675059837</v>
+        <v>2.228940333333334</v>
       </c>
       <c r="H9">
-        <v>3.62855675059837</v>
+        <v>6.686821</v>
       </c>
       <c r="I9">
-        <v>0.3097467722759116</v>
+        <v>0.1731349056329954</v>
       </c>
       <c r="J9">
-        <v>0.3097467722759116</v>
+        <v>0.1957994147469982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.5852286044109</v>
+        <v>9.1351955</v>
       </c>
       <c r="N9">
-        <v>15.5852286044109</v>
+        <v>18.270391</v>
       </c>
       <c r="O9">
-        <v>0.6181049731022549</v>
+        <v>0.3507802261079284</v>
       </c>
       <c r="P9">
-        <v>0.6181049731022549</v>
+        <v>0.264817762244454</v>
       </c>
       <c r="Q9">
-        <v>56.55188646215398</v>
+        <v>20.36180570283517</v>
       </c>
       <c r="R9">
-        <v>56.55188646215398</v>
+        <v>122.170834217011</v>
       </c>
       <c r="S9">
-        <v>0.1914560203461126</v>
+        <v>0.06073230134511696</v>
       </c>
       <c r="T9">
-        <v>0.1914560203461126</v>
+        <v>0.05185116286207381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.470643</v>
+      </c>
+      <c r="H10">
+        <v>8.941286</v>
+      </c>
+      <c r="I10">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J10">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.098765</v>
+      </c>
+      <c r="N10">
+        <v>3.296295</v>
+      </c>
+      <c r="O10">
+        <v>0.04219121913039277</v>
+      </c>
+      <c r="P10">
+        <v>0.04777771124863077</v>
+      </c>
+      <c r="Q10">
+        <v>4.912186055895</v>
+      </c>
+      <c r="R10">
+        <v>29.47311633537</v>
+      </c>
+      <c r="S10">
+        <v>0.01465137071651546</v>
+      </c>
+      <c r="T10">
+        <v>0.01250883948654686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.62855675059837</v>
-      </c>
-      <c r="H10">
-        <v>3.62855675059837</v>
-      </c>
-      <c r="I10">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="J10">
-        <v>0.3097467722759116</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.12172873171747</v>
-      </c>
-      <c r="N10">
-        <v>9.12172873171747</v>
-      </c>
-      <c r="O10">
-        <v>0.3617647219347545</v>
-      </c>
-      <c r="P10">
-        <v>0.3617647219347545</v>
-      </c>
-      <c r="Q10">
-        <v>33.09871036660053</v>
-      </c>
-      <c r="R10">
-        <v>33.09871036660053</v>
-      </c>
-      <c r="S10">
-        <v>0.1120554549425829</v>
-      </c>
-      <c r="T10">
-        <v>0.1120554549425829</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.470643</v>
+      </c>
+      <c r="H11">
+        <v>8.941286</v>
+      </c>
+      <c r="I11">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J11">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.79937666666667</v>
+      </c>
+      <c r="N11">
+        <v>47.39813</v>
+      </c>
+      <c r="O11">
+        <v>0.6066765532820465</v>
+      </c>
+      <c r="P11">
+        <v>0.6870059169052114</v>
+      </c>
+      <c r="Q11">
+        <v>70.63337269919667</v>
+      </c>
+      <c r="R11">
+        <v>423.80023619518</v>
+      </c>
+      <c r="S11">
+        <v>0.2106751895384342</v>
+      </c>
+      <c r="T11">
+        <v>0.1798672752688948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.470643</v>
+      </c>
+      <c r="H12">
+        <v>8.941286</v>
+      </c>
+      <c r="I12">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J12">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009167</v>
+      </c>
+      <c r="N12">
+        <v>0.027501</v>
+      </c>
+      <c r="O12">
+        <v>0.000352001479632415</v>
+      </c>
+      <c r="P12">
+        <v>0.0003986096017039115</v>
+      </c>
+      <c r="Q12">
+        <v>0.040982384381</v>
+      </c>
+      <c r="R12">
+        <v>0.245894306286</v>
+      </c>
+      <c r="S12">
+        <v>0.0001222364339583962</v>
+      </c>
+      <c r="T12">
+        <v>0.0001043612888772168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.470643</v>
+      </c>
+      <c r="H13">
+        <v>8.941286</v>
+      </c>
+      <c r="I13">
+        <v>0.3472611367601188</v>
+      </c>
+      <c r="J13">
+        <v>0.2618132840531441</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.1351955</v>
+      </c>
+      <c r="N13">
+        <v>18.270391</v>
+      </c>
+      <c r="O13">
+        <v>0.3507802261079284</v>
+      </c>
+      <c r="P13">
+        <v>0.264817762244454</v>
+      </c>
+      <c r="Q13">
+        <v>40.8401978157065</v>
+      </c>
+      <c r="R13">
+        <v>163.360791262826</v>
+      </c>
+      <c r="S13">
+        <v>0.1218123400712107</v>
+      </c>
+      <c r="T13">
+        <v>0.0693328080088252</v>
       </c>
     </row>
   </sheetData>
